--- a/数据库设计/数据表设计书.xlsx
+++ b/数据库设计/数据表设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="281">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2637,6 +2637,11 @@
   </si>
   <si>
     <t>新建</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主角：10001～
+配角：20001～</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3385,7 +3390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3665,28 +3670,37 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3704,6 +3718,15 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3734,44 +3757,29 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4070,7 +4078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4356,9 +4364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4387,7 +4393,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="102" t="s">
         <v>278</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -4396,7 +4402,7 @@
       <c r="C3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="128">
+      <c r="D3" s="103">
         <v>42713</v>
       </c>
     </row>
@@ -4528,13 +4534,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
-      <c r="B25" s="124"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="48"/>
       <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
-      <c r="B26" s="125"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
     </row>
@@ -4752,9 +4758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5204,7 +5208,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="99" t="s">
         <v>265</v>
       </c>
       <c r="C25" s="48" t="s">
@@ -5223,7 +5227,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="100" t="s">
         <v>266</v>
       </c>
       <c r="C26" s="49" t="s">
@@ -5723,7 +5727,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5746,95 +5750,95 @@
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="97"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="99"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="23" t="s">
@@ -6140,11 +6144,11 @@
       <c r="B30" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
       <c r="F30" s="53" t="s">
         <v>26</v>
       </c>
@@ -6162,8 +6166,8 @@
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" hidden="1"/>
@@ -6177,13 +6181,19 @@
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" hidden="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C30:E30"/>
@@ -6191,12 +6201,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G9"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6209,7 +6213,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6232,96 +6236,96 @@
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="117"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="99"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="117" t="str">
+      <c r="C4" s="128" t="str">
         <f>VLOOKUP(C3,目录!B:G,2)</f>
         <v>T_PLAYINFO_TBL</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="23" t="s">
@@ -6437,7 +6441,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="66" customFormat="1">
+    <row r="17" spans="1:7" s="66" customFormat="1" ht="81">
       <c r="A17" s="58">
         <v>5</v>
       </c>
@@ -6455,7 +6459,9 @@
         <v>109</v>
       </c>
       <c r="F17" s="67"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="62" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -6632,11 +6638,11 @@
       <c r="B30" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
       <c r="F30" s="53" t="s">
         <v>26</v>
       </c>
@@ -6654,8 +6660,8 @@
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" hidden="1"/>
@@ -6669,19 +6675,13 @@
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="102"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" hidden="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -6689,6 +6689,12 @@
     <mergeCell ref="B7:G9"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6701,7 +6707,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6724,96 +6730,96 @@
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="117"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="99"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="117" t="str">
+      <c r="C4" s="128" t="str">
         <f>VLOOKUP(C3,目录!B:C,2,FALSE)</f>
         <v>T_COMPANY_TBL</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="23" t="s">
@@ -6866,20 +6872,20 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="123">
+      <c r="A14" s="98">
         <v>2</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="120" t="str">
+      <c r="D14" s="95" t="str">
         <f>INDEX(域!B:B,MATCH(制作公司表!C14,域!C:C,0))</f>
         <v>制作公司中文名_varchar(1000)</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="95" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="73"/>
@@ -7008,11 +7014,11 @@
       <c r="B24" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="53" t="s">
         <v>26</v>
       </c>
@@ -7030,8 +7036,8 @@
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" hidden="1"/>
@@ -7045,13 +7051,19 @@
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" hidden="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -7059,12 +7071,6 @@
     <mergeCell ref="B7:G9"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7075,464 +7081,6 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="24" customWidth="1"/>
-    <col min="5" max="6" width="6.625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A1" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="95"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="99"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="117" t="str">
-        <f>VLOOKUP(C3,目录!B:C,2,FALSE)</f>
-        <v>T_CHARACTER_TBL</v>
-      </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="80" customFormat="1">
-      <c r="A13" s="79">
-        <v>1</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C13,域!C:C,0))</f>
-        <v>角色编号_int</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="75">
-        <v>2</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="69" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C14,域!C:C,0))</f>
-        <v>动画编号_char(4)</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="76">
-        <v>3</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C15,域!C:C,0))</f>
-        <v>角色序号_int</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-    </row>
-    <row r="16" spans="1:7" s="80" customFormat="1">
-      <c r="A16" s="122">
-        <v>4</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="120" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C16,域!C:C,0))</f>
-        <v>角色中文名_varchar(1000)</v>
-      </c>
-      <c r="E16" s="120" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="58">
-        <v>5</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C17,域!C:C,0))</f>
-        <v>角色日文名_varcahr(1000)</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-    </row>
-    <row r="18" spans="1:7" s="78" customFormat="1">
-      <c r="A18" s="75">
-        <v>6</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="69" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C18,域!C:C,0))</f>
-        <v>声优编号_int</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="1:7" s="78" customFormat="1">
-      <c r="A19" s="75">
-        <v>7</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="D19" s="69" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C19,域!C:C,0))</f>
-        <v>主角FLAG_bit</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
-    </row>
-    <row r="20" spans="1:7" s="66" customFormat="1">
-      <c r="A20" s="75">
-        <v>8</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="69" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C20,域!C:C,0))</f>
-        <v>有效性FLAG_bit</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="65"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="75">
-        <v>9</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C21,域!C:C,0))</f>
-        <v>最终更新用户_varchar(100)</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="75">
-        <v>10</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="16" t="str">
-        <f>INDEX(域!B:B,MATCH(角色表!C22,域!C:C,0))</f>
-        <v>最终更新时间_datetime</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A27" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A28" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1">
-      <c r="A30" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" hidden="1" thickBot="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:7" hidden="1"/>
-    <row r="33" spans="1:7" hidden="1">
-      <c r="A33" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" hidden="1" thickBot="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" hidden="1"/>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G9"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -7556,96 +7104,96 @@
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="116" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="117"/>
+      <c r="C3" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="128"/>
       <c r="E3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="99"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="117" t="str">
+      <c r="C4" s="128" t="str">
         <f>VLOOKUP(C3,目录!B:C,2,FALSE)</f>
-        <v>T_CV_TBL</v>
-      </c>
-      <c r="D4" s="117"/>
+        <v>T_CHARACTER_TBL</v>
+      </c>
+      <c r="D4" s="128"/>
       <c r="E4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="23" t="s">
@@ -7677,81 +7225,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
+    <row r="13" spans="1:7" s="80" customFormat="1">
+      <c r="A13" s="79">
         <v>1</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="16" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C13,域!C:C,0))</f>
-        <v>声优编号_int</v>
-      </c>
-      <c r="E13" s="57" t="s">
+      <c r="B13" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="60" t="str">
+        <f>INDEX(域!B:B,MATCH(角色表!C13,域!C:C,0))</f>
+        <v>角色编号_int</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="77"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="118">
+      <c r="A14" s="75">
         <v>2</v>
       </c>
-      <c r="B14" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="120" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C14,域!C:C,0))</f>
-        <v>声优中文名_varchar(1000)</v>
-      </c>
-      <c r="E14" s="121" t="s">
-        <v>262</v>
+      <c r="B14" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="69" t="str">
+        <f>INDEX(域!B:B,MATCH(角色表!C14,域!C:C,0))</f>
+        <v>动画编号_char(4)</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="27">
       <c r="A15" s="76">
         <v>3</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="D15" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C15,域!C:C,0))</f>
-        <v>声优日文名_varchar(1000)</v>
+        <f>INDEX(域!B:B,MATCH(角色表!C15,域!C:C,0))</f>
+        <v>角色序号_int</v>
       </c>
       <c r="E15" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="129" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="80" customFormat="1">
+      <c r="A16" s="97">
+        <v>4</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="95" t="str">
+        <f>INDEX(域!B:B,MATCH(角色表!C16,域!C:C,0))</f>
+        <v>角色中文名_varchar(1000)</v>
+      </c>
+      <c r="E16" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="58">
-        <v>4</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C16,域!C:C,0))</f>
-        <v>声优假名_varchar(1000)</v>
-      </c>
-      <c r="E16" s="60"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
     </row>
@@ -7760,16 +7314,18 @@
         <v>5</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D17" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C17,域!C:C,0))</f>
-        <v>声优日文拼写_varchar(1000)</v>
-      </c>
-      <c r="E17" s="60"/>
+        <f>INDEX(域!B:B,MATCH(角色表!C17,域!C:C,0))</f>
+        <v>角色日文名_varcahr(1000)</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>149</v>
+      </c>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
     </row>
@@ -7778,119 +7334,112 @@
         <v>6</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="69"/>
+        <v>78</v>
+      </c>
+      <c r="D18" s="69" t="str">
+        <f>INDEX(域!B:B,MATCH(角色表!C18,域!C:C,0))</f>
+        <v>声优编号_int</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>170</v>
+      </c>
       <c r="F18" s="71"/>
-      <c r="G18" s="83" t="s">
-        <v>271</v>
-      </c>
+      <c r="G18" s="72"/>
     </row>
     <row r="19" spans="1:7" s="78" customFormat="1">
       <c r="A19" s="75">
         <v>7</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>270</v>
-      </c>
-      <c r="E19" s="69"/>
+        <v>259</v>
+      </c>
+      <c r="D19" s="69" t="str">
+        <f>INDEX(域!B:B,MATCH(角色表!C19,域!C:C,0))</f>
+        <v>主角FLAG_bit</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
     </row>
-    <row r="20" spans="1:7" s="78" customFormat="1">
+    <row r="20" spans="1:7" s="66" customFormat="1">
       <c r="A20" s="75">
         <v>8</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D20" s="69" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C20,域!C:C,0))</f>
-        <v>声优事务所编号_int</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="126" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="66" customFormat="1">
-      <c r="A21" s="4">
+        <f>INDEX(域!B:B,MATCH(角色表!C20,域!C:C,0))</f>
+        <v>有效性FLAG_bit</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="75">
         <v>9</v>
       </c>
-      <c r="B21" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="69" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C21,域!C:C,0))</f>
-        <v>有效性FLAG_bit</v>
-      </c>
-      <c r="E21" s="69" t="s">
+      <c r="B21" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="60" t="str">
+        <f>INDEX(域!B:B,MATCH(角色表!C21,域!C:C,0))</f>
+        <v>最终更新用户_varchar(100)</v>
+      </c>
+      <c r="E21" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="65"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="75">
         <v>10</v>
       </c>
-      <c r="B22" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="60" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C22,域!C:C,0))</f>
-        <v>最终更新用户_varchar(100)</v>
-      </c>
-      <c r="E22" s="60" t="s">
+      <c r="B22" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f>INDEX(域!B:B,MATCH(角色表!C22,域!C:C,0))</f>
+        <v>最终更新时间_datetime</v>
+      </c>
+      <c r="E22" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="57" t="s">
+        <v>111</v>
+      </c>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4">
-        <v>11</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="16" t="str">
-        <f>INDEX(域!B:B,MATCH(声优表!C23,域!C:C,0))</f>
-        <v>最终更新时间_datetime</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>111</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7">
@@ -7902,6 +7451,465 @@
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
     </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A27" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A28" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
+      <c r="A30" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" hidden="1" thickBot="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1"/>
+    <row r="33" spans="1:7" hidden="1">
+      <c r="A33" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" hidden="1" thickBot="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G9"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="E31:F31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="24" customWidth="1"/>
+    <col min="5" max="6" width="6.625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A1" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="124"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="128"/>
+      <c r="E3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="111"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="128" t="str">
+        <f>VLOOKUP(C3,目录!B:C,2,FALSE)</f>
+        <v>T_CV_TBL</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="126"/>
+      <c r="G4" s="111"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="111"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="118"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C13,域!C:C,0))</f>
+        <v>声优编号_int</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="93">
+        <v>2</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="95" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C14,域!C:C,0))</f>
+        <v>声优中文名_varchar(1000)</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="76">
+        <v>3</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="60" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C15,域!C:C,0))</f>
+        <v>声优日文名_varchar(1000)</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="58">
+        <v>4</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="60" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C16,域!C:C,0))</f>
+        <v>声优假名_varchar(1000)</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="58">
+        <v>5</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="60" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C17,域!C:C,0))</f>
+        <v>声优日文拼写_varchar(1000)</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" spans="1:7" s="78" customFormat="1">
+      <c r="A18" s="75">
+        <v>6</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="83" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="78" customFormat="1">
+      <c r="A19" s="75">
+        <v>7</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:7" s="78" customFormat="1">
+      <c r="A20" s="75">
+        <v>8</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="69" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C20,域!C:C,0))</f>
+        <v>声优事务所编号_int</v>
+      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="101" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="66" customFormat="1">
+      <c r="A21" s="4">
+        <v>9</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="69" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C21,域!C:C,0))</f>
+        <v>有效性FLAG_bit</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="60" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C22,域!C:C,0))</f>
+        <v>最终更新用户_varchar(100)</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
+        <v>11</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="16" t="str">
+        <f>INDEX(域!B:B,MATCH(声优表!C23,域!C:C,0))</f>
+        <v>最终更新时间_datetime</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+    </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="16"/>
@@ -7932,11 +7940,11 @@
       <c r="B29" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="53" t="s">
         <v>26</v>
       </c>
@@ -7954,8 +7962,8 @@
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" hidden="1"/>
@@ -7969,19 +7977,13 @@
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105"/>
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7" hidden="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -7989,6 +7991,12 @@
     <mergeCell ref="B7:G9"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8022,96 +8030,96 @@
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="117"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="99"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="117" t="str">
+      <c r="C4" s="128" t="str">
         <f>VLOOKUP(C3,目录!B:C,2,FALSE)</f>
         <v>T_SEARCH_KEYWORD_TBL</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="115"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1">
       <c r="A11" s="23" t="s">
@@ -8457,11 +8465,11 @@
       <c r="B32" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
       <c r="F32" s="53" t="s">
         <v>26</v>
       </c>
@@ -8479,8 +8487,8 @@
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105"/>
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7" hidden="1"/>
@@ -8494,19 +8502,13 @@
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7" hidden="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -8514,6 +8516,12 @@
     <mergeCell ref="B7:G9"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
